--- a/DependencyRule.xlsx
+++ b/DependencyRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="240" windowWidth="24440" windowHeight="15360"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="28">
   <si>
     <t>&lt;</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>server12</t>
+  </si>
+  <si>
+    <t>switch08</t>
+  </si>
+  <si>
+    <t>switch07</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -231,6 +237,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -243,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -282,6 +292,8 @@
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -319,6 +331,8 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1046,6 +1060,52 @@
       </c>
       <c r="G20" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DependencyRule.xlsx
+++ b/DependencyRule.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jplaberge/Documents/workspace.2016-b/krr.git/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24500" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="29">
   <si>
     <t>&lt;</t>
   </si>
@@ -105,6 +113,9 @@
   </si>
   <si>
     <t>switch07</t>
+  </si>
+  <si>
+    <t>www.magenta.ca|order</t>
   </si>
 </sst>
 </file>
@@ -337,6 +348,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -627,11 +643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
@@ -641,7 +657,7 @@
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -664,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -687,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -710,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -733,7 +749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -756,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -779,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -802,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -819,7 +835,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -836,7 +852,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -859,7 +875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -882,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -905,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -919,7 +935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -933,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -947,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -970,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -993,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1016,30 +1032,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1111,11 +1127,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1125,14 +1136,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1142,13 +1148,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DependencyRule.xlsx
+++ b/DependencyRule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
   <si>
     <t>&lt;</t>
   </si>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1066,61 +1066,84 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
